--- a/biology/Médecine/Néoplasie_prostatique_intraéphithéliale/Néoplasie_prostatique_intraéphithéliale.xlsx
+++ b/biology/Médecine/Néoplasie_prostatique_intraéphithéliale/Néoplasie_prostatique_intraéphithéliale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9oplasie_prostatique_intra%C3%A9phith%C3%A9liale</t>
+          <t>Néoplasie_prostatique_intraéphithéliale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La néoplasie prostatique intraéphithéliale (ou PIN) est une anomalie de tubes glandulaires prostatiques. Elle peut être de bas (LGPIN) ou de haut grade (HGPIN). Cette anomalie est considérée comme une lésion précurseur du cancer de la prostate (adénocarcinome prostatique).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9oplasie_prostatique_intra%C3%A9phith%C3%A9liale</t>
+          <t>Néoplasie_prostatique_intraéphithéliale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Images microscopiques
+          <t>Images microscopiques</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Néoplasie prostatique intraéphithéliale
 			Néoplasie prostatique intraéphithéliale de haut grade (HGPIN)
 			Néoplasie prostatique intraéphithéliale de haut grade (HGPIN)
